--- a/sam_lang.xlsx
+++ b/sam_lang.xlsx
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22">
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="33">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39">
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40">
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>881</v>
+        <v>888</v>
       </c>
     </row>
     <row r="42">
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="45">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46">
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1099</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="48">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49">
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1154</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="51">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="54">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1130</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="57">
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>428</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="60">
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1246</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="63">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>786</v>
+        <v>775</v>
       </c>
     </row>
     <row r="69">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>912</v>
+        <v>925</v>
       </c>
     </row>
     <row r="72">
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="73">
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="75">
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76">
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="78">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="79">
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>845</v>
+        <v>850</v>
       </c>
     </row>
     <row r="81">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="82">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="84">
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="85">
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>954</v>
+        <v>967</v>
       </c>
     </row>
     <row r="87">
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="88">
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="90">
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91">
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="93">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>502</v>
+        <v>512</v>
       </c>
     </row>
     <row r="94">
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="96">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="97">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>857</v>
+        <v>850</v>
       </c>
     </row>
     <row r="99">
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="100">
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="102">
@@ -2759,7 +2759,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="103">
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="105">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106">
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>501</v>
+        <v>744</v>
       </c>
     </row>
     <row r="108">
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>583</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="109">
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
